--- a/figures/sup/ts1_detailed_bgc_annotations.xlsx
+++ b/figures/sup/ts1_detailed_bgc_annotations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chevr\Documents\paper_workspace\thor_secmet\fig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chevr\Documents\paper_workspace\thor_secmet\thor_secmet\figures\sup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA7B4AE-2152-4AD8-9B25-E386AA9EC2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AABA8A-B00D-4686-AA85-9DC43918983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CD94A6FB-C2DB-47E8-BA94-40A7C20FD321}"/>
   </bookViews>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD631C91-A9A8-4A2F-A54E-12BF395FD8E7}">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
@@ -1139,14 +1139,17 @@
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" customWidth="1"/>
-    <col min="14" max="14" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="201.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
